--- a/xlsx/古印第安人_intext.xlsx
+++ b/xlsx/古印第安人_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美洲</t>
   </si>
   <si>
-    <t>政策_政策_美國_古印第安人</t>
+    <t>政策_政策_美国_古印第安人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Pleistocene</t>
